--- a/src/assets/DataCSV/Professeurs.xlsx
+++ b/src/assets/DataCSV/Professeurs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ouss_ama\Desktop\ProjetBlendedLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF788FC-1619-4A70-8FC0-7A59B26D09DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823644AA-ABDB-4559-96D5-CB86F5B65BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="161">
   <si>
     <t>Monsieur</t>
   </si>
@@ -91,6 +91,423 @@
   </si>
   <si>
     <t>prof3</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>CNE4</t>
+  </si>
+  <si>
+    <t>smith@example.com</t>
+  </si>
+  <si>
+    <t>Specialty4</t>
+  </si>
+  <si>
+    <t>555-123-4567</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>CNE5</t>
+  </si>
+  <si>
+    <t>anna@example.com</t>
+  </si>
+  <si>
+    <t>Specialty5</t>
+  </si>
+  <si>
+    <t>555-987-6543</t>
+  </si>
+  <si>
+    <t>anna</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>CNE6</t>
+  </si>
+  <si>
+    <t>emily@example.com</t>
+  </si>
+  <si>
+    <t>Specialty6</t>
+  </si>
+  <si>
+    <t>555-555-5555</t>
+  </si>
+  <si>
+    <t>emily</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>CNE7</t>
+  </si>
+  <si>
+    <t>alex@example.com</t>
+  </si>
+  <si>
+    <t>Specialty7</t>
+  </si>
+  <si>
+    <t>555-369-2580</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>CNE8</t>
+  </si>
+  <si>
+    <t>emma@example.com</t>
+  </si>
+  <si>
+    <t>Specialty8</t>
+  </si>
+  <si>
+    <t>555-777-7777</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>CNE9</t>
+  </si>
+  <si>
+    <t>liam@example.com</t>
+  </si>
+  <si>
+    <t>Specialty9</t>
+  </si>
+  <si>
+    <t>555-999-9999</t>
+  </si>
+  <si>
+    <t>liam</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>CNE10</t>
+  </si>
+  <si>
+    <t>lily@example.com</t>
+  </si>
+  <si>
+    <t>Specialty10</t>
+  </si>
+  <si>
+    <t>555-111-2222</t>
+  </si>
+  <si>
+    <t>lily</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>CNE11</t>
+  </si>
+  <si>
+    <t>noah@example.com</t>
+  </si>
+  <si>
+    <t>Specialty11</t>
+  </si>
+  <si>
+    <t>555-333-3333</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>CNE12</t>
+  </si>
+  <si>
+    <t>ava@example.com</t>
+  </si>
+  <si>
+    <t>Specialty12</t>
+  </si>
+  <si>
+    <t>555-444-4444</t>
+  </si>
+  <si>
+    <t>ava</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>CNE13</t>
+  </si>
+  <si>
+    <t>mia@example.com</t>
+  </si>
+  <si>
+    <t>Specialty13</t>
+  </si>
+  <si>
+    <t>555-666-6666</t>
+  </si>
+  <si>
+    <t>mia</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>CNE14</t>
+  </si>
+  <si>
+    <t>olivia@example.com</t>
+  </si>
+  <si>
+    <t>Specialty14</t>
+  </si>
+  <si>
+    <t>555-121-1212</t>
+  </si>
+  <si>
+    <t>olivia</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>CNE15</t>
+  </si>
+  <si>
+    <t>william@example.com</t>
+  </si>
+  <si>
+    <t>Specialty15</t>
+  </si>
+  <si>
+    <t>555-343-3434</t>
+  </si>
+  <si>
+    <t>william</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>CNE16</t>
+  </si>
+  <si>
+    <t>sophia@example.com</t>
+  </si>
+  <si>
+    <t>Specialty16</t>
+  </si>
+  <si>
+    <t>555-565-5656</t>
+  </si>
+  <si>
+    <t>sophia</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>CNE17</t>
+  </si>
+  <si>
+    <t>ethan@example.com</t>
+  </si>
+  <si>
+    <t>Specialty17</t>
+  </si>
+  <si>
+    <t>555-787-7878</t>
+  </si>
+  <si>
+    <t>ethan</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>CNE18</t>
+  </si>
+  <si>
+    <t>aiden@example.com</t>
+  </si>
+  <si>
+    <t>Specialty18</t>
+  </si>
+  <si>
+    <t>555-909-9090</t>
+  </si>
+  <si>
+    <t>aiden</t>
+  </si>
+  <si>
+    <t>Coleman</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>CNE19</t>
+  </si>
+  <si>
+    <t>charlotte@example.com</t>
+  </si>
+  <si>
+    <t>Specialty19</t>
+  </si>
+  <si>
+    <t>555-232-2323</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>CNE20</t>
+  </si>
+  <si>
+    <t>harper@example.com</t>
+  </si>
+  <si>
+    <t>Specialty20</t>
+  </si>
+  <si>
+    <t>555-454-4545</t>
+  </si>
+  <si>
+    <t>harper</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>CNE21</t>
+  </si>
+  <si>
+    <t>benjamin@example.com</t>
+  </si>
+  <si>
+    <t>Specialty21</t>
+  </si>
+  <si>
+    <t>555-676-6767</t>
+  </si>
+  <si>
+    <t>benjamin</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>CNE22</t>
+  </si>
+  <si>
+    <t>james@example.com</t>
+  </si>
+  <si>
+    <t>Specialty22</t>
+  </si>
+  <si>
+    <t>555-898-8989</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>CNE23</t>
+  </si>
+  <si>
+    <t>amelia@example.com</t>
+  </si>
+  <si>
+    <t>Specialty23</t>
+  </si>
+  <si>
+    <t>555-121-4545</t>
+  </si>
+  <si>
+    <t>amelia</t>
   </si>
 </sst>
 </file>
@@ -152,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TeachersTable" displayName="TeachersTable" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TeachersTable" displayName="TeachersTable" ref="A1:I24" totalsRowShown="0">
+  <autoFilter ref="A1:I24" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="prenom"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="nom"/>
@@ -433,10 +850,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,11 +983,613 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="mailto:smith@example.com" xr:uid="{8150AFCC-5365-4FA4-B7C0-8B9B37E1A214}"/>
+    <hyperlink ref="E6" r:id="rId2" display="mailto:anna@example.com" xr:uid="{3D21FED1-BDA6-4773-BA1D-87AA6792A1B0}"/>
+    <hyperlink ref="E7" r:id="rId3" display="mailto:emily@example.com" xr:uid="{58FC9A17-37BB-48F0-B592-0379850E7322}"/>
+    <hyperlink ref="E8" r:id="rId4" display="mailto:alex@example.com" xr:uid="{46A5B95C-1C1C-4B49-9452-97CC2DAA605F}"/>
+    <hyperlink ref="E9" r:id="rId5" display="mailto:emma@example.com" xr:uid="{5FA0F0A9-7858-4D3A-A288-F956D763D8FB}"/>
+    <hyperlink ref="E10" r:id="rId6" display="mailto:liam@example.com" xr:uid="{E1EBCCC7-0C1E-4DF1-A4CA-E710400DFC2D}"/>
+    <hyperlink ref="E11" r:id="rId7" display="mailto:lily@example.com" xr:uid="{61FBF09B-DAD0-4477-9842-E72E07BA7DE8}"/>
+    <hyperlink ref="E12" r:id="rId8" display="mailto:noah@example.com" xr:uid="{56437BE6-D296-4973-8C69-DE58430F89DB}"/>
+    <hyperlink ref="E13" r:id="rId9" display="mailto:ava@example.com" xr:uid="{71B90F1E-D956-4527-A78C-D69C53096810}"/>
+    <hyperlink ref="E14" r:id="rId10" display="mailto:mia@example.com" xr:uid="{AFE0CDF9-FFE1-44F2-8226-5FB16587FE11}"/>
+    <hyperlink ref="E15" r:id="rId11" display="mailto:olivia@example.com" xr:uid="{E1DCD6C5-D210-4585-9575-F9D5409AA786}"/>
+    <hyperlink ref="E16" r:id="rId12" display="mailto:william@example.com" xr:uid="{12F04DCD-0432-42BA-93E5-52F9655938AF}"/>
+    <hyperlink ref="E17" r:id="rId13" display="mailto:sophia@example.com" xr:uid="{331B6AA0-8482-4AFC-8560-725EB56711D8}"/>
+    <hyperlink ref="E18" r:id="rId14" display="mailto:ethan@example.com" xr:uid="{CE608880-D017-4E50-A4AF-58D4D5FC2085}"/>
+    <hyperlink ref="E19" r:id="rId15" display="mailto:aiden@example.com" xr:uid="{0496B69D-404F-40A7-8497-E5A25BE163FD}"/>
+    <hyperlink ref="E20" r:id="rId16" display="mailto:charlotte@example.com" xr:uid="{7048A7A2-9321-4C65-9B65-BDE19B0683CD}"/>
+    <hyperlink ref="E21" r:id="rId17" display="mailto:harper@example.com" xr:uid="{D31B500E-7A79-43F9-80FD-81F02D1DE03F}"/>
+    <hyperlink ref="E22" r:id="rId18" display="mailto:benjamin@example.com" xr:uid="{40AB580B-4500-4B9F-AA50-48F3A28A3E2F}"/>
+    <hyperlink ref="E23" r:id="rId19" display="mailto:james@example.com" xr:uid="{C293BFCF-F212-41F6-BDFF-B7A0CF1CB4D6}"/>
+    <hyperlink ref="E24" r:id="rId20" display="mailto:amelia@example.com" xr:uid="{7CD162EF-56C0-4B53-9AB7-A120535212F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>